--- a/JuiceDataset.xlsx
+++ b/JuiceDataset.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rene/Documents/Inferential-Statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josefine Kuka\Documents\Inferential Projekt\Inferential-Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -307,6 +307,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -577,13 +580,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N3" zoomScale="91" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32:AJ32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2247,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2375,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4184,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4295,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4423,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4935,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5063,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -5191,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>

--- a/JuiceDataset.xlsx
+++ b/JuiceDataset.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josefine Kuka\Documents\Inferential Projekt\Inferential-Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rene/Documents/Inferential-Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -580,13 +580,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>57</v>
       </c>
       <c r="C17">
-        <v>7.16</v>
+        <v>5.32</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>61</v>
       </c>
       <c r="C21">
-        <v>7.16</v>
+        <v>5.32</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>69</v>
       </c>
       <c r="C29">
-        <v>7.16</v>
+        <v>5.32</v>
       </c>
       <c r="D29">
         <v>1</v>

--- a/JuiceDataset.xlsx
+++ b/JuiceDataset.xlsx
@@ -9,12 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pairs" sheetId="4" r:id="rId2"/>
+    <sheet name="Binary Pivot" sheetId="2" r:id="rId3"/>
+    <sheet name="Average Pivot" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AP$37</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="56" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -261,15 +270,46 @@
   </si>
   <si>
     <t>Compal Vital Equilibrio</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Fruit_Proportion</t>
+  </si>
+  <si>
+    <t>Average of Banana</t>
+  </si>
+  <si>
+    <t>Average of Pear</t>
+  </si>
+  <si>
+    <t>Average of Kcal</t>
+  </si>
+  <si>
+    <t>Average of Price</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -296,8 +336,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,6 +359,2065 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Josefine Kuka" refreshedDate="42918.670573263887" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="36">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:AP37" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="42">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="37"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.61" maxValue="7.16" count="31">
+        <n v="0.68"/>
+        <n v="0.97"/>
+        <n v="1.1499999999999999"/>
+        <n v="1.55"/>
+        <n v="0.99"/>
+        <n v="1.24"/>
+        <n v="2.25"/>
+        <n v="1.29"/>
+        <n v="2.4"/>
+        <n v="0.61"/>
+        <n v="1.72"/>
+        <n v="0.79"/>
+        <n v="0.65"/>
+        <n v="0.72"/>
+        <n v="1.17"/>
+        <n v="5.32"/>
+        <n v="0.86"/>
+        <n v="1.23"/>
+        <n v="1.49"/>
+        <n v="1.4"/>
+        <n v="1.3"/>
+        <n v="0.89"/>
+        <n v="0.67"/>
+        <n v="6.27"/>
+        <n v="0.73"/>
+        <n v="1.79"/>
+        <n v="1.18"/>
+        <n v="1.19"/>
+        <n v="1.45"/>
+        <n v="2.15"/>
+        <n v="7.16" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fruit_Proportion" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Fresh_Juice" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Nectar" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Added_Vitamins" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Sugar" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.7000000000000003E-2" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Added_Sugar" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Sugar_Replacement" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Proteins" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Salt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.3"/>
+    </cacheField>
+    <cacheField name="Kcal" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="89"/>
+    </cacheField>
+    <cacheField name="Apple" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.82"/>
+    </cacheField>
+    <cacheField name="Orange" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.45"/>
+    </cacheField>
+    <cacheField name="Pineapple" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.44"/>
+    </cacheField>
+    <cacheField name="Mango" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.35"/>
+    </cacheField>
+    <cacheField name="Grape" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.23"/>
+    </cacheField>
+    <cacheField name="Maracuja" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.16"/>
+    </cacheField>
+    <cacheField name="Peach" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.5"/>
+    </cacheField>
+    <cacheField name="Pear" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.22500000000000001"/>
+    </cacheField>
+    <cacheField name="Banana" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.3"/>
+    </cacheField>
+    <cacheField name="Apricot" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.2"/>
+    </cacheField>
+    <cacheField name="Carrot" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.11"/>
+    </cacheField>
+    <cacheField name="Lemon" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="5.6000000000000001E-2"/>
+    </cacheField>
+    <cacheField name="Kiwi" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.02"/>
+    </cacheField>
+    <cacheField name="Tomato" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.09"/>
+    </cacheField>
+    <cacheField name="Grapefruit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="6.4000000000000001E-2"/>
+    </cacheField>
+    <cacheField name="Rosa_Camina" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.01"/>
+    </cacheField>
+    <cacheField name="Guava" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.05"/>
+    </cacheField>
+    <cacheField name="Mandarin" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.18"/>
+    </cacheField>
+    <cacheField name="Papaia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.01"/>
+    </cacheField>
+    <cacheField name="Raspberry" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.06"/>
+    </cacheField>
+    <cacheField name="Blueberry" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.04"/>
+    </cacheField>
+    <cacheField name="Strawberry" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.02"/>
+    </cacheField>
+    <cacheField name="Cherries" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.06"/>
+    </cacheField>
+    <cacheField name="Median" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9"/>
+    </cacheField>
+    <cacheField name="Average" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.6" maxValue="7.2"/>
+    </cacheField>
+    <cacheField name="Rounded_Average" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="7" count="5">
+        <n v="4"/>
+        <n v="5"/>
+        <n v="7"/>
+        <n v="6"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Average_Recom" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Avg&gt;=6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Med&gt;=6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="0"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
+  <r>
+    <n v="1"/>
+    <s v="Continente E Nectar Multifrutas"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.4"/>
+    <n v="0"/>
+    <n v="24"/>
+    <n v="0.17299999999999999"/>
+    <n v="0.1"/>
+    <n v="5.7000000000000002E-2"/>
+    <n v="0.04"/>
+    <n v="0.03"/>
+    <n v="0.03"/>
+    <n v="0.03"/>
+    <n v="5.0000000000000001E-3"/>
+    <n v="5.0000000000000001E-3"/>
+    <n v="0.03"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Santal - Active Drink ACE"/>
+    <x v="1"/>
+    <n v="0.15"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4.2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="0.01"/>
+    <n v="17"/>
+    <n v="1.4999999999999999E-2"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="1.4999999999999999E-2"/>
+    <n v="1.4999999999999999E-2"/>
+    <n v="0"/>
+    <n v="5.0000000000000001E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="5.4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Don Simon Tropical"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="12.3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.2"/>
+    <n v="0.01"/>
+    <n v="50"/>
+    <n v="0"/>
+    <n v="0.2"/>
+    <n v="0.15"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="7.2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Compal Vital Tropical Cenoura"/>
+    <x v="3"/>
+    <n v="0.32"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2.7"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.01"/>
+    <n v="12"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.13"/>
+    <n v="0"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="5.0000000000000001E-3"/>
+    <n v="5.0000000000000001E-3"/>
+    <n v="0.09"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="5.8"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Compal Classico Tutti Frutti"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="8.1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="37"/>
+    <n v="0.09"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.11"/>
+    <n v="0"/>
+    <n v="0.23"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="4.8"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Um Bongo 8 Frutos"/>
+    <x v="5"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="42"/>
+    <n v="0.19"/>
+    <n v="0.11"/>
+    <n v="0.01"/>
+    <n v="0.06"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="0"/>
+    <n v="0.06"/>
+    <n v="0.04"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="5.4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Vitamont Vita 12"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.3"/>
+    <n v="3.0000000000000001E-3"/>
+    <n v="56"/>
+    <n v="0.38"/>
+    <n v="0.1"/>
+    <n v="3.5000000000000003E-2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="3.4000000000000002E-2"/>
+    <n v="0.03"/>
+    <n v="3.5999999999999997E-2"/>
+    <n v="3.4000000000000002E-2"/>
+    <n v="0"/>
+    <n v="7.0000000000000001E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6.4000000000000001E-2"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="3.6"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Santal Manga Laranja Light"/>
+    <x v="7"/>
+    <n v="0.32500000000000001"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3.5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0.2"/>
+    <n v="8.0000000000000002E-3"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="0.15"/>
+    <n v="0"/>
+    <n v="0.17499999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="3.6"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Vitabio Fruit Kidz"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="0.01"/>
+    <n v="46"/>
+    <n v="0.66"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.28000000000000003"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.06"/>
+    <n v="4"/>
+    <n v="3.6"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Continente Sumo 100 Tropical"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.4"/>
+    <n v="0"/>
+    <n v="42"/>
+    <n v="0.28000000000000003"/>
+    <n v="0.27500000000000002"/>
+    <n v="0.17"/>
+    <n v="0.08"/>
+    <n v="0"/>
+    <n v="4.4999999999999998E-2"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4.4000000000000004"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Solvita Multifrutos ACE"/>
+    <x v="10"/>
+    <n v="0.35"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="9.8000000000000007"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.4"/>
+    <n v="0"/>
+    <n v="48"/>
+    <n v="0.15"/>
+    <n v="5.5E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.5000000000000003E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="5"/>
+    <n v="4.5999999999999996"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Auchan Sumo Pessego Maca Uva"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="9.4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.01"/>
+    <n v="49"/>
+    <n v="0.45"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4.4000000000000004"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Dia Sumo Tropical"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.6"/>
+    <n v="0"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="0.17"/>
+    <n v="0.44"/>
+    <n v="0.06"/>
+    <n v="0.01"/>
+    <n v="0.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0.18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="4.8"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Dia Tropical "/>
+    <x v="13"/>
+    <n v="0.15"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3.8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="7.6999999999999999E-2"/>
+    <n v="3.0000000000000001E-3"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="5.8"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Juver 100% Multifrutas"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="0.46"/>
+    <n v="0.31"/>
+    <n v="0.12"/>
+    <n v="0"/>
+    <n v="0.04"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="0.04"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="5.4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="So Natural Manga Maca Banama"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="67"/>
+    <n v="0.6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3.6"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Solevita ACE + Fruit"/>
+    <x v="16"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="10.4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="43"/>
+    <n v="0"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.3999999999999997E-2"/>
+    <n v="5.6000000000000001E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="6.8"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Dia Fruti Kids Tropical"/>
+    <x v="17"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="9.7000000000000003E-2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="0.01"/>
+    <n v="42"/>
+    <n v="0.41599999999999998"/>
+    <n v="6.2E-2"/>
+    <n v="2.1000000000000001E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6.4"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Auchan Nectar Multifrutos"/>
+    <x v="18"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="9.8000000000000007"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.01"/>
+    <n v="47"/>
+    <n v="0.28000000000000003"/>
+    <n v="0.13"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.04"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="5.2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="So Natural Green Juices"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="59"/>
+    <n v="0.6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="4.2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Pingo Doce Nectrarissimo Tutti Frutti"/>
+    <x v="19"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="0.28000000000000003"/>
+    <n v="0.09"/>
+    <n v="0.06"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="5.4"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Trina Tropical"/>
+    <x v="20"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="9.1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="0.01"/>
+    <n v="40"/>
+    <n v="0.06"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="5.8"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Continente Nectrar Light Multifrutos"/>
+    <x v="21"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5.0999999999999996"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="23"/>
+    <n v="0.16"/>
+    <n v="0.16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4.5999999999999996"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Pingo Doce Tropical Frutas e Vitaminas"/>
+    <x v="5"/>
+    <n v="0.85"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="8.6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.2"/>
+    <n v="0.01"/>
+    <n v="36"/>
+    <n v="0.38"/>
+    <n v="0.21"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.08"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="0"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3.8"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Juver Disfruta Light"/>
+    <x v="22"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4.7"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0.2"/>
+    <n v="0.01"/>
+    <n v="25"/>
+    <n v="0.19"/>
+    <n v="0.11"/>
+    <n v="0.03"/>
+    <n v="0.06"/>
+    <n v="0.03"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <n v="0.02"/>
+    <n v="0.03"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.01"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4.4000000000000004"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Compal Essential MBLA"/>
+    <x v="23"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.6"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="0.48"/>
+    <n v="0.12"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Don Simon Disfruta "/>
+    <x v="24"/>
+    <n v="0.55000000000000004"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5.4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0.3"/>
+    <n v="0.01"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="0.45"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="4.2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="So Natural Frutos Vermelhos"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.3"/>
+    <n v="0.01"/>
+    <n v="51"/>
+    <n v="0.82"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.08"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.06"/>
+    <n v="0.04"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Auchan Bio Sumo Multifrutos"/>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.3"/>
+    <n v="0.3"/>
+    <n v="50"/>
+    <n v="0.34"/>
+    <n v="0.31"/>
+    <n v="0"/>
+    <n v="0.22"/>
+    <n v="0"/>
+    <n v="0.06"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="5.4"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Compal Frutas do Pomar"/>
+    <x v="26"/>
+    <n v="0.51"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="6.6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="33"/>
+    <n v="0.38"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="0.09"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1.6"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Santal Active Drink Red Fruit"/>
+    <x v="27"/>
+    <n v="0.15"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4.0999999999999996"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="0.01"/>
+    <n v="18"/>
+    <n v="3.5999999999999997E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.5999999999999997E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.03"/>
+    <n v="0.04"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.0000000000000001E-3"/>
+    <n v="0"/>
+    <n v="2E-3"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Capri Sun Multi Vitamin"/>
+    <x v="28"/>
+    <n v="0.12"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="9.4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="5.3E-3"/>
+    <n v="4.02E-2"/>
+    <n v="5.3E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5.3E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5.3E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.8000000000000001E-2"/>
+    <n v="5.3E-3"/>
+    <n v="0"/>
+    <n v="5.3E-3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3.6"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Santal Nectar Tutti Frutti Multifruits"/>
+    <x v="29"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="8.9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.2"/>
+    <n v="0.01"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.152"/>
+    <n v="1.4999999999999999E-2"/>
+    <n v="0"/>
+    <n v="1.4999999999999999E-2"/>
+    <n v="0"/>
+    <n v="0.22500000000000001"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1.2E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8.0000000000000002E-3"/>
+    <n v="4.8000000000000001E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="5.6"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Continental Nectar Tutti Frutti Classico"/>
+    <x v="11"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="8.3000000000000007"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="37"/>
+    <n v="0.21"/>
+    <n v="0.16"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0"/>
+    <n v="0.06"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="5.8"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Continental 100% Sumo Natural"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0.1"/>
+    <n v="89"/>
+    <n v="0.65"/>
+    <n v="0.1"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="7.2"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Compal Vital Equilibrio"/>
+    <x v="3"/>
+    <n v="0.51"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="19"/>
+    <n v="0.12"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0.08"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="4.4000000000000004"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="32">
+        <item x="9"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="23"/>
+        <item m="1" x="30"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="41"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Average of Fruit_Proportion" fld="3" subtotal="average" baseField="36" baseItem="0"/>
+    <dataField name="Average of Banana" fld="21" subtotal="average" baseField="36" baseItem="0"/>
+    <dataField name="Average of Pear" fld="20" subtotal="average" baseField="36" baseItem="0"/>
+    <dataField name="Average of Kcal" fld="12" subtotal="average" baseField="36" baseItem="0"/>
+    <dataField name="Average of Price" fld="2" subtotal="average" baseField="41" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="32">
+        <item x="9"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="23"/>
+        <item h="1" m="1" x="30"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="38"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Average of Price" fld="2" subtotal="average" baseField="37" baseItem="5"/>
+    <dataField name="Average of Fruit_Proportion" fld="3" subtotal="average" baseField="38" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,10 +2683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP37"/>
+  <dimension ref="A1:AP38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2645,7 +4751,7 @@
         <v>57</v>
       </c>
       <c r="C17">
-        <v>7.16</v>
+        <v>5.32</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3157,7 +5263,7 @@
         <v>61</v>
       </c>
       <c r="C21">
-        <v>7.16</v>
+        <v>5.32</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4181,7 +6287,7 @@
         <v>69</v>
       </c>
       <c r="C29">
-        <v>7.16</v>
+        <v>5.32</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -5323,6 +7429,445 @@
       </c>
       <c r="AP37">
         <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <f>COUNTIF(N2:N37,"&gt;0")</f>
+        <v>29</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:AC38" si="0">COUNTIF(O2:O37,"&gt;0")</f>
+        <v>26</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AP37"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:P41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.66104166666666664</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0679166666666669E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0208333333333333E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>39.166666666666664</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.5745833333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.50166666666666671</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.7916666666666668E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>41.25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.9433333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.60791666666666666</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.6425000000000001E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.3055555555555555E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>39.861111111111114</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.6974999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+      <c r="G12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.4</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.8692307692307695</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.71961538461538466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.2310000000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.78125</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.40250000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.2675000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.6974999999999993</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.60791666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/JuiceDataset.xlsx
+++ b/JuiceDataset.xlsx
@@ -145,24 +145,6 @@
     <t>Cherries</t>
   </si>
   <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Rounded_Average</t>
-  </si>
-  <si>
-    <t>Average_Recom</t>
-  </si>
-  <si>
-    <t>Avg&gt;=6</t>
-  </si>
-  <si>
-    <t>Med&gt;=6</t>
-  </si>
-  <si>
     <t>Continente E Nectar Multifrutas</t>
   </si>
   <si>
@@ -293,6 +275,24 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>Med_Rating</t>
+  </si>
+  <si>
+    <t>Avg_Rating</t>
+  </si>
+  <si>
+    <t>Avg_Rating_Rounded</t>
+  </si>
+  <si>
+    <t>Recommondation</t>
+  </si>
+  <si>
+    <t>Dummy_Avg</t>
+  </si>
+  <si>
+    <t>Dummy_Median</t>
   </si>
 </sst>
 </file>
@@ -2676,9 +2676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2796,22 +2796,22 @@
         <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM1" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AO1" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>0.68</v>
@@ -2947,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>0.97</v>
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>1.1499999999999999</v>
@@ -3203,7 +3203,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>1.55</v>
@@ -3331,7 +3331,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>0.99</v>
@@ -3459,7 +3459,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1.24</v>
@@ -3587,7 +3587,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>2.25</v>
@@ -3715,7 +3715,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>1.29</v>
@@ -3843,7 +3843,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>2.4</v>
@@ -3971,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>0.61</v>
@@ -4099,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>1.72</v>
@@ -4227,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>0.79</v>
@@ -4355,7 +4355,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>0.65</v>
@@ -4483,7 +4483,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>0.72</v>
@@ -4611,7 +4611,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>1.17</v>
@@ -4739,7 +4739,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>5.32</v>
@@ -4867,7 +4867,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>0.86</v>
@@ -4995,7 +4995,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>1.23</v>
@@ -5123,7 +5123,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>1.49</v>
@@ -5251,7 +5251,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>5.32</v>
@@ -5379,7 +5379,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>1.4</v>
@@ -5507,7 +5507,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>1.3</v>
@@ -5635,7 +5635,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>0.89</v>
@@ -5763,7 +5763,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>1.24</v>
@@ -5891,7 +5891,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>0.67</v>
@@ -6019,7 +6019,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>6.27</v>
@@ -6147,7 +6147,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>0.73</v>
@@ -6275,7 +6275,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>5.32</v>
@@ -6403,7 +6403,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1.79</v>
@@ -6531,7 +6531,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>1.18</v>
@@ -6659,7 +6659,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C32">
         <v>1.19</v>
@@ -6787,7 +6787,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>1.45</v>
@@ -6915,7 +6915,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>2.15</v>
@@ -7043,7 +7043,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>0.79</v>
@@ -7171,7 +7171,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>0.79</v>
@@ -7299,7 +7299,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>1.55</v>
@@ -7517,27 +7517,27 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7582,7 +7582,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1">
         <v>0.60791666666666666</v>
@@ -7658,18 +7658,18 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7729,7 +7729,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>1.6974999999999993</v>
